--- a/Model_Parameters.xlsx
+++ b/Model_Parameters.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishrao\Desktop\Laptop Backup\Krishna\Fall'21\IOE 574\Term Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishrao\Desktop\Laptop Backup\Krishna\Fall'21\IOE 574\Term Project\IOE574_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BDAEA7-548B-4816-B554-D24F217F7EA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D075947-856E-43AB-9208-787F487EF54F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Routes" sheetId="1" r:id="rId1"/>
+    <sheet name="Demands" sheetId="2" r:id="rId2"/>
+    <sheet name="Possible_Updates" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>route_1_mean</t>
   </si>
@@ -61,6 +63,27 @@
   </si>
   <si>
     <t>route_2_std</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>* Updating 1st stop of bus as deployment with mean 0 and std 0</t>
   </si>
 </sst>
 </file>
@@ -96,8 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +464,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -449,7 +473,7 @@
         <v>0.25</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1.5</v>
@@ -458,7 +482,7 @@
         <v>0.25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -467,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -478,7 +502,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -487,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -496,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -505,7 +529,7 @@
         <v>0.5</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -516,7 +540,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -525,7 +549,7 @@
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -534,7 +558,7 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -543,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -554,7 +578,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0.75</v>
@@ -563,7 +587,7 @@
         <v>1.5</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0.75</v>
@@ -574,7 +598,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -583,7 +607,7 @@
         <v>1.5</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -594,7 +618,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1.2</v>
@@ -605,13 +629,128 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6127B80-B336-49A8-B63D-818655E54FC4}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>-180</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD6B424-442A-444D-AE06-F335FF6D6F4D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Model_Parameters.xlsx
+++ b/Model_Parameters.xlsx
@@ -8,26 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishrao\Desktop\Laptop Backup\Krishna\Fall'21\IOE 574\Term Project\IOE574_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D075947-856E-43AB-9208-787F487EF54F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA715E0-B2A6-45D7-9294-6E84FC78E76D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Routes" sheetId="1" r:id="rId1"/>
     <sheet name="Demands" sheetId="2" r:id="rId2"/>
     <sheet name="Possible_Updates" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>route_1_mean</t>
   </si>
@@ -84,6 +93,45 @@
   </si>
   <si>
     <t>* Updating 1st stop of bus as deployment with mean 0 and std 0</t>
+  </si>
+  <si>
+    <t>Gallons per hour</t>
+  </si>
+  <si>
+    <t>lts per minute</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>Fuel Running</t>
+  </si>
+  <si>
+    <t>Fuel Idle</t>
+  </si>
+  <si>
+    <t>ReFueling</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/What-is-the-flow-rate-of-gasoline-station-fuel-dispensers-in-liters-per-second</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/eere/vehicles/fact-861-february-23-2015-idle-fuel-consumption-selected-gasoline-and-diesel-vehicles</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=average+fuel+consumtion+of+transit+bus+per+hour&amp;rlz=1C1GCEA_enUS970US970&amp;oq=average+fuel+consumtion+of+transit+bus+per+hour&amp;aqs=chrome..69i57j33i10i22i29i30.16846j0j9&amp;sourceid=chrome&amp;ie=UTF-8</t>
+  </si>
+  <si>
+    <t>route_3_index</t>
+  </si>
+  <si>
+    <t>route_3_mean</t>
+  </si>
+  <si>
+    <t>route_3_std</t>
   </si>
 </sst>
 </file>
@@ -402,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,9 +470,12 @@
     <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -461,8 +512,17 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -499,8 +559,17 @@
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -517,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -537,8 +606,17 @@
       <c r="L3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -575,8 +653,17 @@
       <c r="L4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G5">
         <v>0</v>
       </c>
@@ -595,8 +682,17 @@
       <c r="L5">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.75</v>
+      </c>
+      <c r="O5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G6">
         <v>1</v>
       </c>
@@ -615,8 +711,17 @@
       <c r="L6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>0</v>
       </c>
@@ -627,7 +732,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>1</v>
       </c>
@@ -648,7 +753,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -710,7 +815,7 @@
         <v>120</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -718,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -730,7 +835,7 @@
         <v>45</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -740,17 +845,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD6B424-442A-444D-AE06-F335FF6D6F4D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <f>F8/60</f>
+        <v>7.161533333333335E-2</v>
+      </c>
+      <c r="E7">
+        <f>8.9/100</f>
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>48.28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>0.97</v>
+      </c>
+      <c r="C8">
+        <f>3.78*B8/60</f>
+        <v>6.1109999999999998E-2</v>
+      </c>
+      <c r="F8">
+        <f>E7*F7</f>
+        <v>4.296920000000001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Model_Parameters.xlsx
+++ b/Model_Parameters.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishrao\Desktop\Laptop Backup\Krishna\Fall'21\IOE 574\Term Project\IOE574_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA715E0-B2A6-45D7-9294-6E84FC78E76D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B769E181-9295-4F6A-820A-D62CEF586A72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Routes" sheetId="1" r:id="rId1"/>
-    <sheet name="Demands" sheetId="2" r:id="rId2"/>
-    <sheet name="Possible_Updates" sheetId="3" r:id="rId3"/>
+    <sheet name="Routes" sheetId="6" r:id="rId1"/>
+    <sheet name="Routes-mean.std" sheetId="5" r:id="rId2"/>
+    <sheet name="Routes-1" sheetId="1" r:id="rId3"/>
+    <sheet name="Demands" sheetId="2" r:id="rId4"/>
+    <sheet name="Possible_Updates" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>route_1_mean</t>
   </si>
@@ -132,6 +134,54 @@
   </si>
   <si>
     <t>route_3_std</t>
+  </si>
+  <si>
+    <t>* Figuring out the constant in the model</t>
+  </si>
+  <si>
+    <t>spare_buses = 2</t>
+  </si>
+  <si>
+    <t>average_bus_speed = 10</t>
+  </si>
+  <si>
+    <t># Will</t>
+  </si>
+  <si>
+    <t>running_consumption = 0.5             # fuel(lts.)/kWh per minute</t>
+  </si>
+  <si>
+    <t>service_consumption = 0.5</t>
+  </si>
+  <si>
+    <t>refuel_consumption = -10</t>
+  </si>
+  <si>
+    <t># Routes - Harsh</t>
+  </si>
+  <si>
+    <t># tank level/charge of buses</t>
+  </si>
+  <si>
+    <t>level_mean = 50       # normal distribution.. can be changed</t>
+  </si>
+  <si>
+    <t>level_std = 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refuel = 'refill'  </t>
+  </si>
+  <si>
+    <t>refuel_stations = 2</t>
+  </si>
+  <si>
+    <t>* Charge levels to be monitered above 100 and below 0</t>
+  </si>
+  <si>
+    <t>* Demand through the day for each route is constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Charge levels - determining minimium charge level for a route. </t>
   </si>
 </sst>
 </file>
@@ -449,11 +499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B29C9E4-856B-485E-9DA5-80DA7C06AE35}">
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,6 +577,2404 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1.6452</v>
+      </c>
+      <c r="I2">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1.9197</v>
+      </c>
+      <c r="L2">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>9.0213999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.30590000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>0.25</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.72770000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>8.5617000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.31540000000000001</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>18.014299999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.17319999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>0.25</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>0.25</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>18.766300000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>25.479800000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.1091</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>4.6871999999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.27739999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>0.25</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>0.25</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>55.3949</v>
+      </c>
+      <c r="I8">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>3.9498000000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.30890000000000001</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5.8949999999999996</v>
+      </c>
+      <c r="O8">
+        <v>0.2409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>0.25</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>0.25</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>7.9062000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>24.875599999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>0.25</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>0.25</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>7.5948000000000002</v>
+      </c>
+      <c r="I12">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0.56920000000000004</v>
+      </c>
+      <c r="L12">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>4.4090999999999996</v>
+      </c>
+      <c r="O12">
+        <v>0.40820000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>0.25</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>0.25</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1.6115999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.62050000000000005</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>9.0334000000000003</v>
+      </c>
+      <c r="L14">
+        <v>0.1439</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>54.575899999999997</v>
+      </c>
+      <c r="O14">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>0.25</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>0.25</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>6.7881999999999998</v>
+      </c>
+      <c r="I16">
+        <v>0.17680000000000001</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>13.0044</v>
+      </c>
+      <c r="L16">
+        <v>0.1615</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>6.7458999999999998</v>
+      </c>
+      <c r="O16">
+        <v>0.25940000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>0.25</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>0.25</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>7.4812000000000003</v>
+      </c>
+      <c r="I18">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>5.0595999999999997</v>
+      </c>
+      <c r="L18">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>17.5854</v>
+      </c>
+      <c r="O18">
+        <v>0.1547</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>0.25</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>0.25</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1.6380999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.61050000000000004</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1.7891999999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.39119999999999999</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>5.0888999999999998</v>
+      </c>
+      <c r="O20">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>0.25</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>0.25</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>5.7923999999999998</v>
+      </c>
+      <c r="I22">
+        <v>0.39879999999999999</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>5.7967000000000004</v>
+      </c>
+      <c r="L22">
+        <v>0.2243</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>12.462</v>
+      </c>
+      <c r="O22">
+        <v>0.19020000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>0.25</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>0.25</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>7.9062000000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="L24">
+        <v>0.60829999999999995</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>44.944299999999998</v>
+      </c>
+      <c r="O24">
+        <v>9.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>0.25</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>0.25</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>55.3949</v>
+      </c>
+      <c r="I26">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2.4618000000000002</v>
+      </c>
+      <c r="L26">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>12.566000000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1019</v>
+      </c>
+    </row>
+    <row r="27" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>0.25</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>0.25</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>6.6657999999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="L28">
+        <v>0.56079999999999997</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="O28">
+        <v>0.52349999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>0.25</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>4.1637000000000004</v>
+      </c>
+      <c r="I30">
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>13.077299999999999</v>
+      </c>
+      <c r="L30">
+        <v>0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0.75270000000000004</v>
+      </c>
+      <c r="L32">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>4.2640000000000002</v>
+      </c>
+      <c r="L34">
+        <v>0.23449999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>2.8283999999999998</v>
+      </c>
+      <c r="L36">
+        <v>0.35360000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>25.843399999999999</v>
+      </c>
+      <c r="L38">
+        <v>0.1474</v>
+      </c>
+    </row>
+    <row r="39" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>5.1040000000000001</v>
+      </c>
+      <c r="L40">
+        <v>0.42909999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1.4709000000000001</v>
+      </c>
+      <c r="L42">
+        <v>1.0946</v>
+      </c>
+    </row>
+    <row r="43" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>27.447700000000001</v>
+      </c>
+      <c r="L44">
+        <v>0.15989999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="L45">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>14.2598</v>
+      </c>
+      <c r="L46">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="47" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>6.1087999999999996</v>
+      </c>
+      <c r="L48">
+        <v>0.2586</v>
+      </c>
+    </row>
+    <row r="49" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2.6797</v>
+      </c>
+      <c r="L50">
+        <v>0.55979999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="L52">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A281DA-2A15-4D09-8952-345B5471E943}">
+  <dimension ref="A1:O52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1.31</v>
+      </c>
+      <c r="I2">
+        <v>1.04</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1.3</v>
+      </c>
+      <c r="L2">
+        <v>0.88</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2.76</v>
+      </c>
+      <c r="O2">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>0.1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+      <c r="O3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.69</v>
+      </c>
+      <c r="I4">
+        <v>0.65</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2.7</v>
+      </c>
+      <c r="L4">
+        <v>0.85</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>3.12</v>
+      </c>
+      <c r="O4">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>0.1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.5</v>
+      </c>
+      <c r="O5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>0.48</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2.78</v>
+      </c>
+      <c r="L6">
+        <v>0.3</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1.3</v>
+      </c>
+      <c r="O6">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <v>0.1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.5</v>
+      </c>
+      <c r="O7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.47</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1.22</v>
+      </c>
+      <c r="L8">
+        <v>0.38</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1.42</v>
+      </c>
+      <c r="O8">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.5</v>
+      </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.5</v>
+      </c>
+      <c r="O9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1.69</v>
+      </c>
+      <c r="I10">
+        <v>0.36</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.3</v>
+      </c>
+      <c r="L10">
+        <v>0.12</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>3.76</v>
+      </c>
+      <c r="O10">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.5</v>
+      </c>
+      <c r="O11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2.31</v>
+      </c>
+      <c r="I12">
+        <v>0.7</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0.3</v>
+      </c>
+      <c r="L12">
+        <v>0.16</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1.8</v>
+      </c>
+      <c r="O12">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.5</v>
+      </c>
+      <c r="O13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0.62</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1.3</v>
+      </c>
+      <c r="L14">
+        <v>0.19</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>3.84</v>
+      </c>
+      <c r="O14">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>0.1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.5</v>
+      </c>
+      <c r="O15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1.2</v>
+      </c>
+      <c r="I16">
+        <v>0.21</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2.1</v>
+      </c>
+      <c r="L16">
+        <v>0.34</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1.75</v>
+      </c>
+      <c r="O16">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>0.1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <v>0.1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.5</v>
+      </c>
+      <c r="O17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1.2</v>
+      </c>
+      <c r="I18">
+        <v>0.19</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.79</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>2.72</v>
+      </c>
+      <c r="O18">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+      <c r="L19">
+        <v>0.1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.5</v>
+      </c>
+      <c r="O19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0.61</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0.7</v>
+      </c>
+      <c r="L20">
+        <v>0.27</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1.42</v>
+      </c>
+      <c r="O20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>0.1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="L21">
+        <v>0.1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.5</v>
+      </c>
+      <c r="O21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2.31</v>
+      </c>
+      <c r="I22">
+        <v>0.92</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1.3</v>
+      </c>
+      <c r="L22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>2.37</v>
+      </c>
+      <c r="O22">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <v>0.1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <v>0.1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.5</v>
+      </c>
+      <c r="O23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1.69</v>
+      </c>
+      <c r="I24">
+        <v>0.36</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.61</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>4.22</v>
+      </c>
+      <c r="O24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <v>0.1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <v>0.1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.5</v>
+      </c>
+      <c r="O25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I26">
+        <v>0.47</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.41</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1.28</v>
+      </c>
+      <c r="O26">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="27" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0.5</v>
+      </c>
+      <c r="I27">
+        <v>0.1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27">
+        <v>0.1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0.5</v>
+      </c>
+      <c r="O27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1.79</v>
+      </c>
+      <c r="I28">
+        <v>0.48</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0.49</v>
+      </c>
+      <c r="L28">
+        <v>0.27</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0.46</v>
+      </c>
+      <c r="O28">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="29" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
+      </c>
+      <c r="I29">
+        <v>0.1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.5</v>
+      </c>
+      <c r="L29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2.13</v>
+      </c>
+      <c r="I30">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1.51</v>
+      </c>
+      <c r="L30">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="31" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0.49</v>
+      </c>
+      <c r="L32">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+      <c r="L33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+      <c r="L35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="37" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.5</v>
+      </c>
+      <c r="L37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>3.81</v>
+      </c>
+      <c r="L38">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.5</v>
+      </c>
+      <c r="L39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>2.19</v>
+      </c>
+      <c r="L40">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="41" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="L41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1.61</v>
+      </c>
+      <c r="L42">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="43" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0.5</v>
+      </c>
+      <c r="L43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="L44">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.5</v>
+      </c>
+      <c r="L45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>4.42</v>
+      </c>
+      <c r="L46">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="47" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0.5</v>
+      </c>
+      <c r="L47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1.58</v>
+      </c>
+      <c r="L48">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="49" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0.5</v>
+      </c>
+      <c r="L49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1.5</v>
+      </c>
+      <c r="L50">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="51" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0.5</v>
+      </c>
+      <c r="L51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1.5</v>
+      </c>
+      <c r="L52">
+        <v>0.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
@@ -583,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -748,7 +3196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6127B80-B336-49A8-B63D-818655E54FC4}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -843,12 +3291,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD6B424-442A-444D-AE06-F335FF6D6F4D}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,6 +3373,86 @@
         <v>21</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Model_Parameters.xlsx
+++ b/Model_Parameters.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishrao\Desktop\Laptop Backup\Krishna\Fall'21\IOE 574\Term Project\IOE574_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B769E181-9295-4F6A-820A-D62CEF586A72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF96E49-95C1-4AE0-9C73-A9D40C02D1C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Routes" sheetId="6" r:id="rId1"/>
-    <sheet name="Routes-mean.std" sheetId="5" r:id="rId2"/>
-    <sheet name="Routes-1" sheetId="1" r:id="rId3"/>
-    <sheet name="Demands" sheetId="2" r:id="rId4"/>
-    <sheet name="Possible_Updates" sheetId="3" r:id="rId5"/>
+    <sheet name="Demands" sheetId="2" r:id="rId1"/>
+    <sheet name="Routes" sheetId="7" r:id="rId2"/>
+    <sheet name="Routes2" sheetId="8" r:id="rId3"/>
+    <sheet name="Possible_Updates" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>route_1_mean</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t xml:space="preserve">* Charge levels - determining minimium charge level for a route. </t>
+  </si>
+  <si>
+    <t>route_4_index</t>
+  </si>
+  <si>
+    <t>route_4_mean</t>
+  </si>
+  <si>
+    <t>route_4_std</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -499,33 +511,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B29C9E4-856B-485E-9DA5-80DA7C06AE35}">
-  <dimension ref="A1:O52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6127B80-B336-49A8-B63D-818655E54FC4}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>-180</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-60</v>
+      </c>
+      <c r="E4">
+        <v>180</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>-320</v>
+      </c>
+      <c r="E5">
+        <v>180</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD1DF37-C7D6-40AA-9060-57C1756E1061}">
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -571,8 +695,17 @@
       <c r="O1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -613,36 +746,45 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>9.0213999999999999</v>
+        <v>24.876000000000001</v>
       </c>
       <c r="O2">
-        <v>0.30590000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.151</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>6.0039999999999996</v>
+      </c>
+      <c r="R2">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>1960</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>151.25</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0.25</v>
@@ -651,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>0.25</v>
@@ -660,13 +802,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -707,18 +858,27 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>18.014299999999999</v>
+        <v>4.4089999999999998</v>
       </c>
       <c r="O4">
-        <v>0.17319999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1.397</v>
+      </c>
+      <c r="R4">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0.25</v>
@@ -727,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>0.25</v>
@@ -736,13 +896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G6">
         <v>1</v>
       </c>
@@ -765,18 +934,27 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>4.6871999999999998</v>
+        <v>54.576000000000001</v>
       </c>
       <c r="O6">
-        <v>0.27739999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>16.803000000000001</v>
+      </c>
+      <c r="R6">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0.25</v>
@@ -785,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>0.25</v>
@@ -794,13 +972,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>1</v>
       </c>
@@ -823,18 +1010,27 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>5.8949999999999996</v>
+        <v>6.7460000000000004</v>
       </c>
       <c r="O8">
-        <v>0.2409</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>6.1980000000000004</v>
+      </c>
+      <c r="R8">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0.25</v>
@@ -843,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>0.25</v>
@@ -852,13 +1048,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G10">
         <v>1</v>
       </c>
@@ -881,18 +1086,27 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>24.875599999999999</v>
+        <v>17.585000000000001</v>
       </c>
       <c r="O10">
-        <v>0.1512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.155</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>14.827999999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>0.25</v>
@@ -901,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>0.25</v>
@@ -910,13 +1124,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O11">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G12">
         <v>1</v>
       </c>
@@ -939,18 +1162,27 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>4.4090999999999996</v>
+        <v>5.0890000000000004</v>
       </c>
       <c r="O12">
-        <v>0.40820000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="R12">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>0.25</v>
@@ -959,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>0.25</v>
@@ -968,13 +1200,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G14">
         <v>1</v>
       </c>
@@ -997,18 +1238,27 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>54.575899999999997</v>
+        <v>12.462</v>
       </c>
       <c r="O14">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.19</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0.186</v>
+      </c>
+      <c r="R14">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0.25</v>
@@ -1017,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>0.25</v>
@@ -1026,13 +1276,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O15">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>1</v>
       </c>
@@ -1055,18 +1314,27 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>6.7458999999999998</v>
+        <v>44.944000000000003</v>
       </c>
       <c r="O16">
-        <v>0.25940000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>9.0150000000000006</v>
+      </c>
+      <c r="R16">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>0.25</v>
@@ -1075,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>0.25</v>
@@ -1084,13 +1352,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O17">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G18">
         <v>1</v>
       </c>
@@ -1113,18 +1390,27 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>17.5854</v>
+        <v>12.566000000000001</v>
       </c>
       <c r="O18">
-        <v>0.1547</v>
-      </c>
-    </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>11.62</v>
+      </c>
+      <c r="R18">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>0.25</v>
@@ -1133,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>0.25</v>
@@ -1142,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O19">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G20">
         <v>1</v>
       </c>
@@ -1171,18 +1457,18 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>5.0888999999999998</v>
+        <v>0.879</v>
       </c>
       <c r="O20">
-        <v>0.27900000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="7:15" x14ac:dyDescent="0.3">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>0.25</v>
@@ -1191,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>0.25</v>
@@ -1200,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G22">
         <v>1</v>
       </c>
@@ -1229,18 +1515,18 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>12.462</v>
+        <v>12.5</v>
       </c>
       <c r="O22">
-        <v>0.19020000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="7:15" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>0.25</v>
@@ -1249,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>0.25</v>
@@ -1258,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O23">
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G24">
         <v>1</v>
       </c>
@@ -1287,18 +1573,18 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>44.944299999999998</v>
+        <v>9.0210000000000008</v>
       </c>
       <c r="O24">
-        <v>9.3899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="7:15" x14ac:dyDescent="0.3">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>0.25</v>
@@ -1307,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>0.25</v>
@@ -1316,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O25">
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G26">
         <v>1</v>
       </c>
@@ -1345,18 +1631,18 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>12.566000000000001</v>
+        <v>18.013999999999999</v>
       </c>
       <c r="O26">
-        <v>0.1019</v>
-      </c>
-    </row>
-    <row r="27" spans="7:15" x14ac:dyDescent="0.3">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0.25</v>
@@ -1365,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>0.25</v>
@@ -1374,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O27">
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G28">
         <v>1</v>
       </c>
@@ -1403,18 +1689,18 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <v>0.87860000000000005</v>
+        <v>4.6870000000000003</v>
       </c>
       <c r="O28">
-        <v>0.52349999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="7:15" x14ac:dyDescent="0.3">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>0.25</v>
@@ -1423,13 +1709,22 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="30" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G30">
         <v>1</v>
       </c>
@@ -1448,19 +1743,28 @@
       <c r="L30">
         <v>0.11550000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>5.8949999999999996</v>
+      </c>
+      <c r="O30">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="7:18" x14ac:dyDescent="0.3">
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:18" x14ac:dyDescent="0.3">
       <c r="J32">
         <v>1</v>
       </c>
@@ -1476,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>0.25</v>
@@ -1498,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>0.25</v>
@@ -1520,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>0.25</v>
@@ -1542,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L39">
         <v>0.25</v>
@@ -1564,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L41">
         <v>0.25</v>
@@ -1586,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L43">
         <v>0.25</v>
@@ -1608,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L45">
         <v>0.25</v>
@@ -1630,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L47">
         <v>0.25</v>
@@ -1652,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L49">
         <v>0.25</v>
@@ -1674,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L51">
         <v>0.25</v>
@@ -1689,1205 +1993,6 @@
       </c>
       <c r="L52">
         <v>0.61099999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A281DA-2A15-4D09-8952-345B5471E943}">
-  <dimension ref="A1:O52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.25</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0.25</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1.31</v>
-      </c>
-      <c r="I2">
-        <v>1.04</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1.3</v>
-      </c>
-      <c r="L2">
-        <v>0.88</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>2.76</v>
-      </c>
-      <c r="O2">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2.5</v>
-      </c>
-      <c r="F3">
-        <v>0.1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.5</v>
-      </c>
-      <c r="I3">
-        <v>0.1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0.5</v>
-      </c>
-      <c r="L3">
-        <v>0.1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0.5</v>
-      </c>
-      <c r="O3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0.69</v>
-      </c>
-      <c r="I4">
-        <v>0.65</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2.7</v>
-      </c>
-      <c r="L4">
-        <v>0.85</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>3.12</v>
-      </c>
-      <c r="O4">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5">
-        <v>0.1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0.5</v>
-      </c>
-      <c r="L5">
-        <v>0.1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0.5</v>
-      </c>
-      <c r="O5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>0.48</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2.78</v>
-      </c>
-      <c r="L6">
-        <v>0.3</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1.3</v>
-      </c>
-      <c r="O6">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0.5</v>
-      </c>
-      <c r="I7">
-        <v>0.1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0.5</v>
-      </c>
-      <c r="L7">
-        <v>0.1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0.5</v>
-      </c>
-      <c r="O7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="I8">
-        <v>0.47</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1.22</v>
-      </c>
-      <c r="L8">
-        <v>0.38</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1.42</v>
-      </c>
-      <c r="O8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0.5</v>
-      </c>
-      <c r="I9">
-        <v>0.1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0.5</v>
-      </c>
-      <c r="L9">
-        <v>0.1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0.5</v>
-      </c>
-      <c r="O9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1.69</v>
-      </c>
-      <c r="I10">
-        <v>0.36</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0.3</v>
-      </c>
-      <c r="L10">
-        <v>0.12</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>3.76</v>
-      </c>
-      <c r="O10">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0.5</v>
-      </c>
-      <c r="I11">
-        <v>0.1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11">
-        <v>0.1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0.5</v>
-      </c>
-      <c r="O11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2.31</v>
-      </c>
-      <c r="I12">
-        <v>0.7</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0.3</v>
-      </c>
-      <c r="L12">
-        <v>0.16</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1.8</v>
-      </c>
-      <c r="O12">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0.5</v>
-      </c>
-      <c r="I13">
-        <v>0.1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0.5</v>
-      </c>
-      <c r="L13">
-        <v>0.1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0.5</v>
-      </c>
-      <c r="O13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0.62</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1.3</v>
-      </c>
-      <c r="L14">
-        <v>0.19</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>3.84</v>
-      </c>
-      <c r="O14">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0.5</v>
-      </c>
-      <c r="I15">
-        <v>0.1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0.5</v>
-      </c>
-      <c r="L15">
-        <v>0.1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0.5</v>
-      </c>
-      <c r="O15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1.2</v>
-      </c>
-      <c r="I16">
-        <v>0.21</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>2.1</v>
-      </c>
-      <c r="L16">
-        <v>0.34</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1.75</v>
-      </c>
-      <c r="O16">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0.5</v>
-      </c>
-      <c r="I17">
-        <v>0.1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0.5</v>
-      </c>
-      <c r="L17">
-        <v>0.1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0.5</v>
-      </c>
-      <c r="O17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1.2</v>
-      </c>
-      <c r="I18">
-        <v>0.19</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.79</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>2.72</v>
-      </c>
-      <c r="O18">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0.5</v>
-      </c>
-      <c r="I19">
-        <v>0.1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0.5</v>
-      </c>
-      <c r="L19">
-        <v>0.1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0.5</v>
-      </c>
-      <c r="O19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0.61</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0.7</v>
-      </c>
-      <c r="L20">
-        <v>0.27</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1.42</v>
-      </c>
-      <c r="O20">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0.5</v>
-      </c>
-      <c r="I21">
-        <v>0.1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0.5</v>
-      </c>
-      <c r="L21">
-        <v>0.1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0.5</v>
-      </c>
-      <c r="O21">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>2.31</v>
-      </c>
-      <c r="I22">
-        <v>0.92</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1.3</v>
-      </c>
-      <c r="L22">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>2.37</v>
-      </c>
-      <c r="O22">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="23" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0.5</v>
-      </c>
-      <c r="I23">
-        <v>0.1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0.5</v>
-      </c>
-      <c r="L23">
-        <v>0.1</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0.5</v>
-      </c>
-      <c r="O23">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1.69</v>
-      </c>
-      <c r="I24">
-        <v>0.36</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.61</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>4.22</v>
-      </c>
-      <c r="O24">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0.5</v>
-      </c>
-      <c r="I25">
-        <v>0.1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0.5</v>
-      </c>
-      <c r="L25">
-        <v>0.1</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0.5</v>
-      </c>
-      <c r="O25">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="I26">
-        <v>0.47</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.41</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1.28</v>
-      </c>
-      <c r="O26">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="27" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0.5</v>
-      </c>
-      <c r="I27">
-        <v>0.1</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0.5</v>
-      </c>
-      <c r="L27">
-        <v>0.1</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0.5</v>
-      </c>
-      <c r="O27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1.79</v>
-      </c>
-      <c r="I28">
-        <v>0.48</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0.49</v>
-      </c>
-      <c r="L28">
-        <v>0.27</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>0.46</v>
-      </c>
-      <c r="O28">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="29" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0.5</v>
-      </c>
-      <c r="I29">
-        <v>0.1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0.5</v>
-      </c>
-      <c r="L29">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>2.13</v>
-      </c>
-      <c r="I30">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1.51</v>
-      </c>
-      <c r="L30">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="31" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0.5</v>
-      </c>
-      <c r="L31">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>0.49</v>
-      </c>
-      <c r="L32">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0.5</v>
-      </c>
-      <c r="L33">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="35" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0.5</v>
-      </c>
-      <c r="L35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0.5</v>
-      </c>
-      <c r="L37">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>3.81</v>
-      </c>
-      <c r="L38">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0.5</v>
-      </c>
-      <c r="L39">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="40" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>2.19</v>
-      </c>
-      <c r="L40">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="41" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0.5</v>
-      </c>
-      <c r="L41">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="42" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1.61</v>
-      </c>
-      <c r="L42">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="43" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0.5</v>
-      </c>
-      <c r="L43">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="L44">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="45" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0.5</v>
-      </c>
-      <c r="L45">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="46" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>4.42</v>
-      </c>
-      <c r="L46">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="47" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0.5</v>
-      </c>
-      <c r="L47">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="48" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>1.58</v>
-      </c>
-      <c r="L48">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0.5</v>
-      </c>
-      <c r="L49">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="50" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1.5</v>
-      </c>
-      <c r="L50">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="51" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0.5</v>
-      </c>
-      <c r="L51">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="52" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1.5</v>
-      </c>
-      <c r="L52">
-        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -2897,33 +2002,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A77325-58ED-4892-81E2-313F846D2D60}">
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2969,13 +2071,22 @@
       <c r="O1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.25</v>
@@ -2984,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0.25</v>
@@ -2993,54 +2104,63 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>0.96</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>1.3540000000000001</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>12.438000000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="R2">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>1960</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>151.25</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -3049,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L3">
         <v>0.5</v>
@@ -3058,13 +2178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.5</v>
+      </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3078,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -3087,223 +2216,1180 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>4.2809999999999997</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>7</v>
+        <v>2.2050000000000001</v>
       </c>
       <c r="O4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="R4">
+        <v>1.446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="I5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.5</v>
+      </c>
+      <c r="R5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>9.3829999999999991</v>
       </c>
       <c r="I6">
-        <v>1.5</v>
+        <v>0.32</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>12.74</v>
       </c>
       <c r="L6">
-        <v>1.5</v>
+        <v>0.218</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>27.288</v>
       </c>
       <c r="O6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>8.4019999999999992</v>
+      </c>
+      <c r="R6">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="I7">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1.5</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.5</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.5</v>
+      </c>
+      <c r="R7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>27.696999999999999</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0.184</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>3.3730000000000002</v>
+      </c>
+      <c r="O8">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="R8">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1.5</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1.5</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.5</v>
+      </c>
+      <c r="O9">
+        <v>0.5</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.5</v>
+      </c>
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3.9529999999999998</v>
+      </c>
+      <c r="I10">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>8.7929999999999993</v>
+      </c>
+      <c r="O10">
+        <v>0.309</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>7.4139999999999997</v>
+      </c>
+      <c r="R10">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1.5</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1.5</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.5</v>
+      </c>
+      <c r="O11">
+        <v>0.5</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.5</v>
+      </c>
+      <c r="R11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3.7970000000000002</v>
+      </c>
+      <c r="I12">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="L12">
+        <v>1.054</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2.544</v>
+      </c>
+      <c r="O12">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="R12">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1.5</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1.5</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.5</v>
+      </c>
+      <c r="O13">
+        <v>0.5</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.5</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="I14">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>4.5170000000000003</v>
+      </c>
+      <c r="L14">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.38</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="R14">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1.5</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1.5</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1.5</v>
+      </c>
+      <c r="O15">
+        <v>0.5</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.5</v>
+      </c>
+      <c r="R15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>6.5019999999999998</v>
+      </c>
+      <c r="L16">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>22.472000000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.188</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>4.508</v>
+      </c>
+      <c r="R16">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1.5</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1.5</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.5</v>
+      </c>
+      <c r="O17">
+        <v>0.5</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.5</v>
+      </c>
+      <c r="R17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3.7410000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L18">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>6.2830000000000004</v>
+      </c>
+      <c r="O18">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>5.81</v>
+      </c>
+      <c r="R18">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1.5</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1.5</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.5</v>
+      </c>
+      <c r="O19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="I20">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="L20">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0.439</v>
+      </c>
+      <c r="O20">
+        <v>1.0469999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1.5</v>
+      </c>
+      <c r="I21">
+        <v>0.5</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1.5</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1.5</v>
+      </c>
+      <c r="O21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2.8980000000000001</v>
+      </c>
+      <c r="L22">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>6.25</v>
+      </c>
+      <c r="O22">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1.5</v>
+      </c>
+      <c r="I23">
+        <v>0.5</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1.5</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1.5</v>
+      </c>
+      <c r="O23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3.9529999999999998</v>
+      </c>
+      <c r="I24">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="L24">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>4.5110000000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1.5</v>
+      </c>
+      <c r="I25">
+        <v>0.5</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1.5</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.5</v>
+      </c>
+      <c r="O25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>27.696999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.184</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>9.0069999999999997</v>
+      </c>
+      <c r="O26">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1.5</v>
+      </c>
+      <c r="I27">
+        <v>0.5</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1.5</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1.5</v>
+      </c>
+      <c r="O27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="I28">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0.437</v>
+      </c>
+      <c r="L28">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>2.3439999999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1.5</v>
+      </c>
+      <c r="I29">
+        <v>0.5</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1.5</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1.5</v>
+      </c>
+      <c r="O29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2.0819999999999999</v>
+      </c>
+      <c r="I30">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>6.5389999999999997</v>
+      </c>
+      <c r="L30">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>2.9470000000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1.5</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0.376</v>
+      </c>
+      <c r="L32">
+        <v>1.302</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1.5</v>
+      </c>
+      <c r="L33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="L34">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1.5</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="L36">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1.5</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>12.922000000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1.5</v>
+      </c>
+      <c r="L39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>2.552</v>
+      </c>
+      <c r="L40">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1.5</v>
+      </c>
+      <c r="L41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="L42">
+        <v>2.1890000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1.5</v>
+      </c>
+      <c r="L43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>13.724</v>
+      </c>
+      <c r="L44">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="45" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1.5</v>
+      </c>
+      <c r="L45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>7.13</v>
+      </c>
+      <c r="L46">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="47" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1.5</v>
+      </c>
+      <c r="L47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="L48">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1.5</v>
+      </c>
+      <c r="L49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1.34</v>
+      </c>
+      <c r="L50">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1.5</v>
+      </c>
+      <c r="L51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="L52">
+        <v>1.222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6127B80-B336-49A8-B63D-818655E54FC4}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>75</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>-180</v>
-      </c>
-      <c r="E3">
-        <v>120</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD6B424-442A-444D-AE06-F335FF6D6F4D}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">

--- a/Model_Parameters.xlsx
+++ b/Model_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishrao\Desktop\Laptop Backup\Krishna\Fall'21\IOE 574\Term Project\IOE574_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF96E49-95C1-4AE0-9C73-A9D40C02D1C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52226B8D-A3BC-46E2-ACAC-EB738255ADC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demands" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Possible_Updates" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -629,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD1DF37-C7D6-40AA-9060-57C1756E1061}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3382,7 +3381,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
